--- a/Papers to read.xlsx
+++ b/Papers to read.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F6401-9914-4929-8E63-8460BF7B5EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9175E3-1AFE-4B00-B981-5B2C25B39A2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8160" yWindow="3300" windowWidth="16770" windowHeight="3720" xr2:uid="{92CF1AD4-3984-495A-8B10-125943144741}"/>
+    <workbookView xWindow="345" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{92CF1AD4-3984-495A-8B10-125943144741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,24 +357,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A97554E-A8BE-470F-A437-B348A74AB7BE}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,10 +864,10 @@
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>2018</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -884,8 +881,6 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
@@ -915,7 +910,7 @@
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="3" t="s">

--- a/Papers to read.xlsx
+++ b/Papers to read.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Ivan\College\2018-2019\Indep Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9175E3-1AFE-4B00-B981-5B2C25B39A2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83DD3B9-DE57-4035-A6B5-7FAF390C00CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{92CF1AD4-3984-495A-8B10-125943144741}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6780" windowHeight="1500" xr2:uid="{92CF1AD4-3984-495A-8B10-125943144741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Consumer</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>section 6 example</t>
+  </si>
+  <si>
+    <t>Demand function Q = D(p) with concave inverse demand p = p(Q)</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A97554E-A8BE-470F-A437-B348A74AB7BE}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1077,9 @@
       <c r="E36" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="F36" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G36" s="3" t="s">
         <v>76</v>
       </c>
@@ -1122,7 +1128,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -1138,7 +1144,7 @@
       <c r="E43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1149,7 +1155,7 @@
       <c r="E44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
